--- a/GSA-WA Workshop/Antrim_data/Ant1&2 original traces.xlsx
+++ b/GSA-WA Workshop/Antrim_data/Ant1&2 original traces.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://curtin-my.sharepoint.com/personal/283284g_curtin_edu_au/Documents/PycharmProjects/PythonWorkshop/GSA-WA Workshop/Antrim_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AC1E2B6-E2E0-434B-938F-F1A41DC81B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{1AC1E2B6-E2E0-434B-938F-F1A41DC81B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99294199-75F4-4584-99E7-73123C105838}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{CB819C4C-290E-4576-81D3-A8BB20C19DF7}"/>
   </bookViews>
@@ -16,17 +16,6 @@
     <sheet name="Ant1&amp;2 original traces" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="92512"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -162,9 +151,6 @@
     <t>TKC2</t>
   </si>
   <si>
-    <t>COMMENTS: 702.0/0207488   (29/11/2002)   CLIENT O/N: AUSQUEST</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -265,6 +251,9 @@
   </si>
   <si>
     <t>STANDARD</t>
+  </si>
+  <si>
+    <t>COMMENTS:</t>
   </si>
 </sst>
 </file>
@@ -314,6 +303,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -636,7 +629,7 @@
   <dimension ref="A1:AG38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D32:D33"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -650,10 +643,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
         <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1042,7 +1035,7 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
@@ -1055,10 +1048,10 @@
         <v>414001</v>
       </c>
       <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
         <v>46</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
       </c>
       <c r="D7">
         <v>311.39999999999998</v>
@@ -1156,10 +1149,10 @@
         <v>414002</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8">
         <v>303.60000000000002</v>
@@ -1257,10 +1250,10 @@
         <v>414003</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9">
         <v>340</v>
@@ -1358,10 +1351,10 @@
         <v>414004</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10">
         <v>303.10000000000002</v>
@@ -1459,10 +1452,10 @@
         <v>414005</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11">
         <v>359.8</v>
@@ -1560,10 +1553,10 @@
         <v>414006</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12">
         <v>315.89999999999998</v>
@@ -1661,10 +1654,10 @@
         <v>414007</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13">
         <v>245.7</v>
@@ -1762,10 +1755,10 @@
         <v>414008</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14">
         <v>240.8</v>
@@ -1863,10 +1856,10 @@
         <v>414009</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15">
         <v>252</v>
@@ -1964,10 +1957,10 @@
         <v>414010</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16">
         <v>285.7</v>
@@ -2065,10 +2058,10 @@
         <v>414011</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17">
         <v>262</v>
@@ -2166,10 +2159,10 @@
         <v>414017</v>
       </c>
       <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
         <v>58</v>
-      </c>
-      <c r="C18" t="s">
-        <v>59</v>
       </c>
       <c r="D18">
         <v>256.5</v>
@@ -2267,10 +2260,10 @@
         <v>414018</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19">
         <v>322.2</v>
@@ -2368,10 +2361,10 @@
         <v>414019</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20">
         <v>321</v>
@@ -2469,10 +2462,10 @@
         <v>414020</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21">
         <v>337.4</v>
@@ -2570,10 +2563,10 @@
         <v>414021</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22">
         <v>281</v>
@@ -2671,10 +2664,10 @@
         <v>414022</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D23">
         <v>279.5</v>
@@ -2772,10 +2765,10 @@
         <v>414023</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24">
         <v>262.89999999999998</v>
@@ -2873,10 +2866,10 @@
         <v>414024</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25">
         <v>273.10000000000002</v>
@@ -2974,10 +2967,10 @@
         <v>414025</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26">
         <v>280.8</v>
@@ -3075,10 +3068,10 @@
         <v>414026</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27">
         <v>326.2</v>
@@ -3176,10 +3169,10 @@
         <v>414027</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28">
         <v>135.9</v>
@@ -3277,10 +3270,10 @@
         <v>414028</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29">
         <v>241.7</v>
@@ -3378,10 +3371,10 @@
         <v>414029</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D30">
         <v>216.1</v>
@@ -3479,10 +3472,10 @@
         <v>414030</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D31">
         <v>196.1</v>
@@ -3580,10 +3573,10 @@
         <v>414031</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D32">
         <v>205.4</v>
@@ -3681,10 +3674,10 @@
         <v>414032</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D33">
         <v>214.5</v>
@@ -3782,10 +3775,10 @@
         <v>414033</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D34">
         <v>263.10000000000002</v>
@@ -3883,10 +3876,10 @@
         <v>414034</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D35">
         <v>260.7</v>
@@ -3984,7 +3977,7 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D36">
         <v>445.3</v>
@@ -4082,7 +4075,7 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D37">
         <v>328.9</v>
@@ -4180,7 +4173,7 @@
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D38">
         <v>519.29999999999995</v>
